--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91968.8107410084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>28494524.92278215</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.192582331168686e-10</v>
+        <v>106005.7888275755</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>411.1760772090881</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>321.6393596860628</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>141.5242915123168</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>82.01270964108606</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>81.2743314685184</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>70.54245807633525</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>52.50074545075637</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>49.56367724059345</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>57.74591815338317</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>77.60002049629389</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>97.81009740783446</v>
       </c>
       <c r="R44" t="n">
-        <v>175.1632494739823</v>
+        <v>126.9913850495814</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>167.8816475394799</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>218.7583856958329</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2751333654446</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,49 +25958,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>127.0309036367328</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>94.97573514563526</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86193375000001</v>
+        <v>66.73498629082682</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>64.29014807201071</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>45.73988577757382</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>23.48568402129196</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>11.52036692897309</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>18.23594302922992</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>30.50273615440041</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>61.35930878861527</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3645969707207</v>
+        <v>92.8893016545353</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>143.6501389339988</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>185.1444101568237</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2828503105535</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8865599014431</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>154.7205238866194</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>132.4162590767394</v>
       </c>
       <c r="J46" t="n">
-        <v>103.1837799195093</v>
+        <v>78.86359894146001</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>64.85774405223553</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>58.4516830177862</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>58.95500830344886</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>51.10446290764006</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>63.87433869480827</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>70.29982587808107</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.0978138239248</v>
+        <v>94.29323789634184</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>132.5594663469447</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>205.5778357386506</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3773828810129</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2995739570064</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>183567.7278222688</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20396.41420247434</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>126964.4664077942</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4158.541425306673</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-110726.5936306265</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.7668694712658096</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7.853701972600975</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.56473529097515</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>65.08708778684657</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>97.54867250552832</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>121.0177540867794</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>134.6555690464027</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>136.8344369316367</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>129.2088786267373</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>110.2767885548626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.81327561515576</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>48.17186442440096</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>17.47503807646966</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.356971110466083</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06134955770126475</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4103113402154758</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.962743733133674</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.12694745917318</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>38.76542359465599</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>66.25628338909286</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>89.08974954985582</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.9635356326668</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>97.62350558188119</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>78.35146986974291</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.37588265627722</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.47529531618542</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.621353183388328</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.653842638850974</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0269941671194392</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3439912443854218</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.05839488189948</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.34475487660887</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>24.32018097804932</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.96552821132445</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>51.1421164607199</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>53.92219115398024</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>52.6400419703619</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.621598797314</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.60417741185136</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.80457592758292</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.46709722482087</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.994829231698668</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.469780771464984</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01876315878465939</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_12_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91968.8107410084</v>
+        <v>-244007.9139887934</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28494524.92278215</v>
+        <v>24916959.95245324</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106005.7888275755</v>
+        <v>1762473.394142288</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M11" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R11" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23351,49 +23351,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I12" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23430,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J13" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K13" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L13" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M13" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N13" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O13" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23509,49 +23509,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R14" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23588,49 +23588,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L15" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23667,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K16" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L16" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N16" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O16" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P16" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23746,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M17" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N17" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R17" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23825,49 +23825,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I18" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L18" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M18" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23904,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J19" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K19" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L19" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M19" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N19" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O19" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23983,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K20" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N20" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P20" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R20" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24062,49 +24062,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L21" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M21" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24141,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J22" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K22" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L22" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M22" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N22" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O22" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P22" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T22" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24220,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K23" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O23" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P23" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R23" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24299,49 +24299,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M24" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24378,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J25" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K25" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L25" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M25" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N25" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24457,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O26" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R26" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24536,49 +24536,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I27" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M27" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24615,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K28" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L28" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M28" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N28" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O28" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24694,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O29" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R29" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24773,49 +24773,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24852,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K31" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L31" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M31" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N31" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O31" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24931,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O32" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P32" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R32" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25010,49 +25010,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25089,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K34" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N34" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O34" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P34" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25168,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O35" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R35" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25247,49 +25247,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25326,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K37" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L37" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M37" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N37" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O37" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P37" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25405,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R38" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25484,49 +25484,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M39" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25563,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K40" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M40" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N40" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O40" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S40" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T40" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25642,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N41" t="n">
-        <v>186.3981141722301</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P41" t="n">
-        <v>187.8768090511565</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R41" t="n">
-        <v>175.1632494739823</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25721,49 +25721,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86193375000001</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M42" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3645969707207</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25800,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1837799195093</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K43" t="n">
-        <v>104.82327226356</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5937994785061</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M43" t="n">
-        <v>112.8771994574291</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N43" t="n">
-        <v>103.744504878002</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4959374921223</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P43" t="n">
-        <v>111.9040032899324</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.0978138239248</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25879,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1760772090881</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H44" t="n">
-        <v>321.6393596860628</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I44" t="n">
-        <v>141.5242915123168</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J44" t="n">
-        <v>82.01270964108606</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K44" t="n">
-        <v>81.2743314685184</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L44" t="n">
-        <v>70.54245807633525</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M44" t="n">
-        <v>52.50074545075637</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N44" t="n">
-        <v>49.56367724059345</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O44" t="n">
-        <v>57.74591815338317</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P44" t="n">
-        <v>77.60002049629389</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.81009740783446</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R44" t="n">
-        <v>126.9913850495814</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S44" t="n">
-        <v>167.8816475394799</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7583856958329</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,49 +25958,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H45" t="n">
-        <v>94.97573514563526</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I45" t="n">
-        <v>66.73498629082682</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J45" t="n">
-        <v>64.29014807201071</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K45" t="n">
-        <v>45.73988577757382</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L45" t="n">
-        <v>23.48568402129196</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M45" t="n">
-        <v>11.52036692897309</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>18.23594302922992</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P45" t="n">
-        <v>30.50273615440041</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.35930878861527</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R45" t="n">
-        <v>92.8893016545353</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S45" t="n">
-        <v>143.6501389339988</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T45" t="n">
-        <v>185.1444101568237</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8865599014431</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7205238866194</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I46" t="n">
-        <v>132.4162590767394</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J46" t="n">
-        <v>78.86359894146001</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K46" t="n">
-        <v>64.85774405223553</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L46" t="n">
-        <v>58.4516830177862</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M46" t="n">
-        <v>58.95500830344886</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N46" t="n">
-        <v>51.10446290764006</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O46" t="n">
-        <v>63.87433869480827</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P46" t="n">
-        <v>70.29982587808107</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.29323789634184</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R46" t="n">
-        <v>132.5594663469447</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S46" t="n">
-        <v>205.5778357386506</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T46" t="n">
-        <v>229.3773828810129</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183567.7278222688</v>
+        <v>203119.4715941233</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22568.83017712483</v>
       </c>
       <c r="P2" t="n">
-        <v>20396.41420247434</v>
+        <v>22568.83017712483</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>170238.7408618884</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>126964.4664077942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4619.356102465596</v>
       </c>
       <c r="P5" t="n">
-        <v>4158.541425306673</v>
+        <v>4619.356102465596</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-168255.7497028516</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1982.991159036806</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1982.991159036806</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1982.991159036803</v>
       </c>
       <c r="P6" t="n">
-        <v>-110726.5936306265</v>
+        <v>1982.991159036803</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>211.8970689204402</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H44" t="n">
-        <v>7.853701972600975</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I44" t="n">
-        <v>29.56473529097515</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J44" t="n">
-        <v>65.08708778684657</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K44" t="n">
-        <v>97.54867250552832</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L44" t="n">
-        <v>121.0177540867794</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6555690464027</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N44" t="n">
-        <v>136.8344369316367</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O44" t="n">
-        <v>129.2088786267373</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P44" t="n">
-        <v>110.2767885548626</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.81327561515576</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R44" t="n">
-        <v>48.17186442440096</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S44" t="n">
-        <v>17.47503807646966</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T44" t="n">
-        <v>3.356971110466083</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06134955770126475</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4103113402154758</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H45" t="n">
-        <v>3.962743733133674</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I45" t="n">
-        <v>14.12694745917318</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J45" t="n">
-        <v>38.76542359465599</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K45" t="n">
-        <v>66.25628338909286</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L45" t="n">
-        <v>89.08974954985582</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M45" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>97.62350558188119</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P45" t="n">
-        <v>78.35146986974291</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.37588265627722</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R45" t="n">
-        <v>25.47529531618542</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S45" t="n">
-        <v>7.621353183388328</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T45" t="n">
-        <v>1.653842638850974</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05839488189948</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I46" t="n">
-        <v>10.34475487660887</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J46" t="n">
-        <v>24.32018097804932</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K46" t="n">
-        <v>39.96552821132445</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L46" t="n">
-        <v>51.1421164607199</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M46" t="n">
-        <v>53.92219115398024</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N46" t="n">
-        <v>52.6400419703619</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O46" t="n">
-        <v>48.621598797314</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P46" t="n">
-        <v>41.60417741185136</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.80457592758292</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R46" t="n">
-        <v>15.46709722482087</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S46" t="n">
-        <v>5.994829231698668</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T46" t="n">
-        <v>1.469780771464984</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
